--- a/biology/Neurosciences/Foramen_interventriculaire/Foramen_interventriculaire.xlsx
+++ b/biology/Neurosciences/Foramen_interventriculaire/Foramen_interventriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En neuroanatomie, les foramens interventriculaires[1] (ou trous de Monro en ancienne nomenclature), au nombre de deux, permettent la circulation du liquide cérébrospinal entre les ventricules latéraux et le troisième ventricule.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En neuroanatomie, les foramens interventriculaires (ou trous de Monro en ancienne nomenclature), au nombre de deux, permettent la circulation du liquide cérébrospinal entre les ventricules latéraux et le troisième ventricule.
 Ils doivent leur nom au médecin britannique Alexander Monro.
 </t>
         </is>
